--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori5/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori5/42/word_level_predictions_42.xlsx
@@ -3385,7 +3385,7 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>O</t>
         </is>
       </c>
       <c r="G57" s="2" t="b">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Missed_B-NonEvent</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G58" s="2" t="b">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G59" s="2" t="b">
@@ -3501,11 +3501,11 @@
         </is>
       </c>
       <c r="I59" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K59" s="2" t="b">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G60" s="2" t="b">
@@ -3553,11 +3553,11 @@
         </is>
       </c>
       <c r="I60" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K60" s="2" t="b">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -3605,11 +3605,11 @@
         </is>
       </c>
       <c r="I61" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K61" s="2" t="b">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G117" s="2" t="b">
@@ -6517,11 +6517,11 @@
         </is>
       </c>
       <c r="I117" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K117" s="2" t="b">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="F118" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G118" s="2" t="b">
@@ -6569,11 +6569,11 @@
         </is>
       </c>
       <c r="I118" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K118" s="2" t="b">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G119" s="2" t="b">
@@ -6621,11 +6621,11 @@
         </is>
       </c>
       <c r="I119" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K119" s="2" t="b">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -6673,11 +6673,11 @@
         </is>
       </c>
       <c r="I120" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K120" s="2" t="b">
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori5/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori5/42/word_level_predictions_42.xlsx
@@ -3385,7 +3385,7 @@
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G57" s="2" t="b">
@@ -3409,7 +3409,7 @@
       </c>
       <c r="L57" s="2" t="inlineStr">
         <is>
-          <t>Missed_B-NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G58" s="2" t="b">
@@ -3461,7 +3461,7 @@
       </c>
       <c r="L58" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G59" s="2" t="b">
@@ -3501,11 +3501,11 @@
         </is>
       </c>
       <c r="I59" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K59" s="2" t="b">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="L59" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G60" s="2" t="b">
@@ -3553,11 +3553,11 @@
         </is>
       </c>
       <c r="I60" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K60" s="2" t="b">
@@ -3565,7 +3565,7 @@
       </c>
       <c r="L60" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3605,11 +3605,11 @@
         </is>
       </c>
       <c r="I61" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K61" s="2" t="b">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="F117" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G117" s="2" t="b">
@@ -6517,11 +6517,11 @@
         </is>
       </c>
       <c r="I117" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K117" s="2" t="b">
@@ -6529,7 +6529,7 @@
       </c>
       <c r="L117" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
       </c>
       <c r="F118" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G118" s="2" t="b">
@@ -6569,11 +6569,11 @@
         </is>
       </c>
       <c r="I118" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K118" s="2" t="b">
@@ -6581,7 +6581,7 @@
       </c>
       <c r="L118" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="F119" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G119" s="2" t="b">
@@ -6621,11 +6621,11 @@
         </is>
       </c>
       <c r="I119" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K119" s="2" t="b">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="L119" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -6673,11 +6673,11 @@
         </is>
       </c>
       <c r="I120" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K120" s="2" t="b">
@@ -6725,11 +6725,11 @@
         </is>
       </c>
       <c r="I121" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K121" s="2" t="b">
